--- a/zoomData.xlsx
+++ b/zoomData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sinse\OneDrive\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Go\src\zoomStart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73852F9B-9E11-4A2C-98AB-817FF08ACEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D7A9A9-C637-484B-8B9E-A157F59FCB9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{54ED19DA-47C8-4EA1-9C3D-99D866B802A8}"/>
+    <workbookView xWindow="7860" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{54ED19DA-47C8-4EA1-9C3D-99D866B802A8}"/>
   </bookViews>
   <sheets>
     <sheet name="zoomData" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
@@ -99,6 +99,22 @@
   </si>
   <si>
     <t>pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hogehoge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11111111111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hugahuga</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -279,10 +295,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,13 +615,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5C959E-609F-446C-AE7C-A75EC49B1090}">
-  <dimension ref="A2:J12"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="10" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
@@ -636,10 +655,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>0.39583333333333331</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -654,8 +673,8 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -668,10 +687,10 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>0.46527777777777773</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -686,8 +705,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
@@ -700,10 +719,10 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>0.5625</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -718,8 +737,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
@@ -732,10 +751,10 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>4</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>0.63194444444444442</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -745,13 +764,15 @@
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
@@ -759,15 +780,17 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>5</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>0.70138888888888884</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -777,13 +800,15 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
@@ -791,25 +816,70 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="9"/>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="11">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="textLength" errorStyle="warning" imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="不正な文字列" error="桁数は11桁です。" promptTitle="11桁" prompt="11桁の数字を入力_x000a_" sqref="D3:J3 D5:J5 D7:J7 D9:J9 D11:J11 D13:J13" xr:uid="{80CBBB8B-6205-408B-95F0-7F41742B3F01}">
+      <formula1>11</formula1>
+      <formula2>11</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H11" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>